--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H2">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I2">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J2">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>0.53493212773</v>
+        <v>0.3338944639333333</v>
       </c>
       <c r="R2">
-        <v>4.814389149569999</v>
+        <v>3.0050501754</v>
       </c>
       <c r="S2">
-        <v>2.179714342672786E-05</v>
+        <v>9.078850933944825E-06</v>
       </c>
       <c r="T2">
-        <v>2.179714342672785E-05</v>
+        <v>9.078850933944825E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H3">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I3">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J3">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.1821614861733333</v>
+        <v>0.13784122534</v>
       </c>
       <c r="R3">
-        <v>1.63945337556</v>
+        <v>1.24057102806</v>
       </c>
       <c r="S3">
-        <v>7.422623983710618E-06</v>
+        <v>3.748010442197764E-06</v>
       </c>
       <c r="T3">
-        <v>7.422623983710617E-06</v>
+        <v>3.748010442197764E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H4">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I4">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J4">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>31.04539633083778</v>
+        <v>91.61772535764334</v>
       </c>
       <c r="R4">
-        <v>279.40856697754</v>
+        <v>824.5595282187899</v>
       </c>
       <c r="S4">
-        <v>0.001265022086885082</v>
+        <v>0.002491157420313557</v>
       </c>
       <c r="T4">
-        <v>0.001265022086885081</v>
+        <v>0.002491157420313557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H5">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I5">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J5">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>0.5699966728011111</v>
+        <v>0.5773391856050001</v>
       </c>
       <c r="R5">
-        <v>5.129970055209999</v>
+        <v>5.196052670445</v>
       </c>
       <c r="S5">
-        <v>2.322593575100146E-05</v>
+        <v>1.569830281905918E-05</v>
       </c>
       <c r="T5">
-        <v>2.322593575100146E-05</v>
+        <v>1.569830281905918E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H6">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I6">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J6">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>71.09301630542222</v>
+        <v>64.40043801297166</v>
       </c>
       <c r="R6">
-        <v>639.8371467488</v>
+        <v>579.603942116745</v>
       </c>
       <c r="S6">
-        <v>0.002896862223669137</v>
+        <v>0.001751098146141362</v>
       </c>
       <c r="T6">
-        <v>0.002896862223669136</v>
+        <v>0.001751098146141361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.454391</v>
       </c>
       <c r="I7">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J7">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>0.195774118119</v>
+        <v>0.16148911268</v>
       </c>
       <c r="R7">
-        <v>1.761967063071</v>
+        <v>1.45340201412</v>
       </c>
       <c r="S7">
-        <v>7.9773046161753E-06</v>
+        <v>4.391014945876651E-06</v>
       </c>
       <c r="T7">
-        <v>7.977304616175298E-06</v>
+        <v>4.391014945876651E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.454391</v>
       </c>
       <c r="I8">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J8">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>0.06666734425199999</v>
@@ -948,10 +948,10 @@
         <v>0.600006098268</v>
       </c>
       <c r="S8">
-        <v>2.716527180198359E-06</v>
+        <v>1.8127370951162E-06</v>
       </c>
       <c r="T8">
-        <v>2.716527180198358E-06</v>
+        <v>1.8127370951162E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.454391</v>
       </c>
       <c r="I9">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J9">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>11.361974301518</v>
+        <v>44.311202406518</v>
       </c>
       <c r="R9">
-        <v>102.257768713662</v>
+        <v>398.800821658662</v>
       </c>
       <c r="S9">
-        <v>0.0004629719746165374</v>
+        <v>0.001204856159079528</v>
       </c>
       <c r="T9">
-        <v>0.0004629719746165373</v>
+        <v>0.001204856159079529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.454391</v>
       </c>
       <c r="I10">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J10">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>0.208607017907</v>
+        <v>0.279231921669</v>
       </c>
       <c r="R10">
-        <v>1.877463161163</v>
+        <v>2.513087295021</v>
       </c>
       <c r="S10">
-        <v>8.500213117571288E-06</v>
+        <v>7.592533769406785E-06</v>
       </c>
       <c r="T10">
-        <v>8.500213117571286E-06</v>
+        <v>7.592533769406786E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.454391</v>
       </c>
       <c r="I11">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J11">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>26.01857665696</v>
+        <v>31.147475368129</v>
       </c>
       <c r="R11">
-        <v>234.16718991264</v>
+        <v>280.327278313161</v>
       </c>
       <c r="S11">
-        <v>0.001060191784624539</v>
+        <v>0.0008469241523346222</v>
       </c>
       <c r="T11">
-        <v>0.001060191784624539</v>
+        <v>0.0008469241523346222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H12">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I12">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J12">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>56.175062743731</v>
+        <v>45.27366684664445</v>
       </c>
       <c r="R12">
-        <v>505.575564693579</v>
+        <v>407.4630016198</v>
       </c>
       <c r="S12">
-        <v>0.002288993007069056</v>
+        <v>0.001231026317992002</v>
       </c>
       <c r="T12">
-        <v>0.002288993007069055</v>
+        <v>0.001231026317992003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H13">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I13">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J13">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>19.129404245548</v>
+        <v>18.69027009391333</v>
       </c>
       <c r="R13">
-        <v>172.164638209932</v>
+        <v>168.21243084522</v>
       </c>
       <c r="S13">
-        <v>0.0007794752761952725</v>
+        <v>0.0005082030234909384</v>
       </c>
       <c r="T13">
-        <v>0.0007794752761952723</v>
+        <v>0.0005082030234909385</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H14">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I14">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J14">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>3260.183855827515</v>
+        <v>12422.69885588008</v>
       </c>
       <c r="R14">
-        <v>29341.65470244763</v>
+        <v>111804.2897029207</v>
       </c>
       <c r="S14">
-        <v>0.1328443206515406</v>
+        <v>0.3377828724118679</v>
       </c>
       <c r="T14">
-        <v>0.1328443206515406</v>
+        <v>0.337782872411868</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H15">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I15">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J15">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>59.85731123347634</v>
+        <v>78.28300487130167</v>
       </c>
       <c r="R15">
-        <v>538.715801101287</v>
+        <v>704.5470438417151</v>
       </c>
       <c r="S15">
-        <v>0.00243903540367071</v>
+        <v>0.002128575968332705</v>
       </c>
       <c r="T15">
-        <v>0.002439035403670709</v>
+        <v>0.002128575968332705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H16">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I16">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J16">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>7465.722181513707</v>
+        <v>8732.232158121091</v>
       </c>
       <c r="R16">
-        <v>67191.49963362336</v>
+        <v>78590.08942308983</v>
       </c>
       <c r="S16">
-        <v>0.3042094664702854</v>
+        <v>0.2374362040935479</v>
       </c>
       <c r="T16">
-        <v>0.3042094664702854</v>
+        <v>0.2374362040935479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H17">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I17">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J17">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>0.029138675621</v>
+        <v>0.02207786572444444</v>
       </c>
       <c r="R17">
-        <v>0.262248080589</v>
+        <v>0.19870079152</v>
       </c>
       <c r="S17">
-        <v>1.187327997050897E-06</v>
+        <v>6.003143912320206E-07</v>
       </c>
       <c r="T17">
-        <v>1.187327997050897E-06</v>
+        <v>6.003143912320207E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H18">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I18">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J18">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.009922650334666668</v>
+        <v>0.009114377125333334</v>
       </c>
       <c r="R18">
-        <v>0.08930385301199999</v>
+        <v>0.082029394128</v>
       </c>
       <c r="S18">
-        <v>4.043231305545472E-07</v>
+        <v>2.478270238502058E-07</v>
       </c>
       <c r="T18">
-        <v>4.043231305545472E-07</v>
+        <v>2.478270238502058E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H19">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I19">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J19">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>1.691096283650889</v>
+        <v>6.057973572239111</v>
       </c>
       <c r="R19">
-        <v>15.219866552858</v>
+        <v>54.521762150152</v>
       </c>
       <c r="S19">
-        <v>6.890793491796033E-05</v>
+        <v>0.0001647210270461912</v>
       </c>
       <c r="T19">
-        <v>6.890793491796031E-05</v>
+        <v>0.0001647210270461913</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H20">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I20">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J20">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>0.03104870186855556</v>
+        <v>0.03817498759066667</v>
       </c>
       <c r="R20">
-        <v>0.279438316817</v>
+        <v>0.343574888316</v>
       </c>
       <c r="S20">
-        <v>1.265156779261931E-06</v>
+        <v>1.038007691586216E-06</v>
       </c>
       <c r="T20">
-        <v>1.265156779261931E-06</v>
+        <v>1.038007691586216E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H21">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I21">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J21">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>3.872559215751112</v>
+        <v>4.258304274639555</v>
       </c>
       <c r="R21">
-        <v>34.85303294176001</v>
+        <v>38.32473847175601</v>
       </c>
       <c r="S21">
-        <v>0.0001577970816829101</v>
+        <v>0.0001157866149842834</v>
       </c>
       <c r="T21">
-        <v>0.0001577970816829101</v>
+        <v>0.0001157866149842834</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H22">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I22">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J22">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>69.99680532097901</v>
+        <v>32.39000181144</v>
       </c>
       <c r="R22">
-        <v>629.971247888811</v>
+        <v>291.51001630296</v>
       </c>
       <c r="S22">
-        <v>0.002852194373646257</v>
+        <v>0.0008807094155804289</v>
       </c>
       <c r="T22">
-        <v>0.002852194373646256</v>
+        <v>0.000880709415580429</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H23">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I23">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J23">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>23.83614934246534</v>
+        <v>13.371523103016</v>
       </c>
       <c r="R23">
-        <v>214.525344082188</v>
+        <v>120.343707927144</v>
       </c>
       <c r="S23">
-        <v>0.0009712633416941876</v>
+        <v>0.0003635821438366837</v>
       </c>
       <c r="T23">
-        <v>0.0009712633416941875</v>
+        <v>0.0003635821438366838</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H24">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I24">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J24">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>4062.344455368216</v>
+        <v>8887.533669580644</v>
       </c>
       <c r="R24">
-        <v>36561.10009831395</v>
+        <v>79987.80302622578</v>
       </c>
       <c r="S24">
-        <v>0.1655303545109313</v>
+        <v>0.2416589733355055</v>
       </c>
       <c r="T24">
-        <v>0.1655303545109312</v>
+        <v>0.2416589733355055</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H25">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I25">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J25">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>74.58506242459812</v>
+        <v>56.00577214510201</v>
       </c>
       <c r="R25">
-        <v>671.2655618213831</v>
+        <v>504.051949305918</v>
       </c>
       <c r="S25">
-        <v>0.003039154350401977</v>
+        <v>0.001522840632803613</v>
       </c>
       <c r="T25">
-        <v>0.003039154350401977</v>
+        <v>0.001522840632803613</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H26">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I26">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J26">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>9302.645633061584</v>
+        <v>6247.274301361782</v>
       </c>
       <c r="R26">
-        <v>83723.81069755426</v>
+        <v>56225.46871225604</v>
       </c>
       <c r="S26">
-        <v>0.3790594929721869</v>
+        <v>0.1698682615380304</v>
       </c>
       <c r="T26">
-        <v>0.3790594929721868</v>
+        <v>0.1698682615380304</v>
       </c>
     </row>
   </sheetData>
